--- a/TweetDataset.xlsx
+++ b/TweetDataset.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>IsVerified</t>
-  </si>
-  <si>
-    <t>Tweet</t>
-  </si>
-  <si>
-    <t>Likes</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>User_location</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,37 +420,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>IsVerified</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tweet</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Likes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>User_location</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arslaan</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>@ImranRiazKhan Great leader Imran Khan 🫡🫡🫡🫡</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Neo News Urdu</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>🔴 LIVE | Huge Crowd at PTI Power Show In Rawalpindi | Imran Khan To Address | Neo News
+Watch Here:… https://t.co/YfF3O0LVb6</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FightAgainstDisinformation</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Imran Khan: Fist rally by former Pakistan PM since being shot at https://t.co/8vtg7eoctR</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ANGRY MAN</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PRAYERS FOR IMRAN KHAN &amp;amp; PEACEFUL LONGMARCHITUS
+#یوم_انقلاب_26_نومبر 
+ #چلو_چلو_پنڈی_چلو  
+ #حقیقی_آزادی_لانگ_مارچ</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Karachi, Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ali Sadam❤️ AS ❤️ PTI 💕</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>@RashidNasrulah This leader Imran Khan Sahab great 💖💖 https://t.co/JMrhfxcs8L</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ayesha</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Slow internet, because we are not scared of Imran Khan. 
+#PTILongMarch https://t.co/lMLlOlKzea</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ehsan Ghuman</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Municipal elections are going to be held in Azad Kashmir according to the vision of Imran Khan.… https://t.co/uNSNG6KlY9</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bis Faqiri</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>@ShaziaJ3 @MaryamNSharif Imran khan is like rat now days !</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mie❤️mie</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Imran Khan: Fist rally by former Pakistan PM since being shot at https://t.co/qrR778u38u</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azeem Saghar</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>@FarooquiJameel Imran khan and company</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Safia Sardar</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>These are laffa dogs always barking on imran Khan https://t.co/HF8OJNfyaL</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/TweetDataset.xlsx
+++ b/TweetDataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arslaan</t>
+          <t>@SapientJim45 = JfT ✝️🇺🇸 Welcome Followers‼️</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>@ImranRiazKhan Great leader Imran Khan 🫡🫡🫡🫡</t>
+          <t>WOW 👉🏿 .@elonmusk is being  Applauded Massively  on  .@MorningsMaria on  FOX  Business TV,  for Standing Up  &amp;amp;  Adm… https://t.co/NusPGWzLD2</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -500,44 +500,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neo News Urdu</t>
+          <t>Dante Cantalini</t>
         </is>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>🔴 LIVE | Huge Crowd at PTI Power Show In Rawalpindi | Imran Khan To Address | Neo News
-Watch Here:… https://t.co/YfF3O0LVb6</t>
+          <t>Elon Musk 'confident' in Neuralink microchip device, expects to begin human trials in six months https://t.co/ZKaQ5SV9gl #FoxBusiness</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FightAgainstDisinformation</t>
+          <t>Tamara L Ernst</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -545,7 +540,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Imran Khan: Fist rally by former Pakistan PM since being shot at https://t.co/8vtg7eoctR</t>
+          <t>Elon Musk’s Job Cuts Decimated Twitter Team Tackling Child Sexual Abuse - Bloomberg https://t.co/mSAhVq9X9V</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -556,19 +551,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Munich, Bavaria</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ANGRY MAN</t>
+          <t>Crissie Schueler</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -576,33 +571,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRAYERS FOR IMRAN KHAN &amp;amp; PEACEFUL LONGMARCHITUS
-#یوم_انقلاب_26_نومبر 
- #چلو_چلو_پنڈی_چلو  
- #حقیقی_آزادی_لانگ_مارچ</t>
+          <t>@MattWallace888 Or for Elon Musk.</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Karachi, Pakistan</t>
+          <t>Germany, Brazil, Bahrain, Alaska</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ali Sadam❤️ AS ❤️ PTI 💕</t>
+          <t>Breakfast Nook Wolf</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -610,26 +602,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>@RashidNasrulah This leader Imran Khan Sahab great 💖💖 https://t.co/JMrhfxcs8L</t>
+          <t>How to run a successful business like Elon Musk:
+1. Tell gullible press your obviously fake product is gonna come o… https://t.co/AMJEY9Bd9O</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>I dunno</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ayesha</t>
+          <t>watchamacallit</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -637,8 +634,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Slow internet, because we are not scared of Imran Khan. 
-#PTILongMarch https://t.co/lMLlOlKzea</t>
+          <t>@DineshDSouza I don’t think the President really gives 2 fucks about what Elon musk thinks.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -652,12 +648,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ehsan Ghuman</t>
+          <t>Chainparrot</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -665,7 +661,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Municipal elections are going to be held in Azad Kashmir according to the vision of Imran Khan.… https://t.co/uNSNG6KlY9</t>
+          <t>EU Chief Fires Another Warning Shot at Elon Musk Over Twitter’s Content Moderation https://t.co/Epiair2npg</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -674,17 +670,21 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Some trees</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bis Faqiri</t>
+          <t>ON.marketing: SEO &amp; Performance Advertising Agency</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -692,26 +692,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>@ShaziaJ3 @MaryamNSharif Imran khan is like rat now days !</t>
+          <t>Elon Musk personally called CEOs of companies that stopped advertising on Twitter to complain, report says… https://t.co/O8ZofCVMKU</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mie❤️mie</t>
+          <t>Glenn-Erik Sandbakken</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -719,7 +723,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Imran Khan: Fist rally by former Pakistan PM since being shot at https://t.co/qrR778u38u</t>
+          <t>Elon Musk risks giving a helping hand to Vladimir Putin if recent staff cuts prevent Twitter from rooting out propa… https://t.co/yq7GMQmIOL</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -728,17 +732,21 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>The Oorth Cloud</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Azeem Saghar</t>
+          <t>Panos Ladas</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -746,7 +754,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>@FarooquiJameel Imran khan and company</t>
+          <t>‘I will make an alternative phone’: Elon Musk to make smartphones if Apple, Google do this - BusinessToday https://t.co/PCJBPRZtB0 #Google</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -755,17 +763,21 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>London, England</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Safia Sardar</t>
+          <t>E Diaz</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -773,7 +785,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>These are laffa dogs always barking on imran Khan https://t.co/HF8OJNfyaL</t>
+          <t>@EthicsMatter20 Does Elon Musk realize he's headed down that hill? Elon is old.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -782,7 +794,2695 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Does it matter</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JBCookie2 🇺🇸🇺🇦💙💛👊👊</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Somehow I'm not surprised.
+https://t.co/bVjPHZyicC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>North Carolina, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>juliolovescrypto</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>@elonmusk can you give a rough estimate of how many baddies try to slide in your dm's  on a daily basis? (across al… https://t.co/0kzgtlbzz3</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Donald J. Putin</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Left-wing voices are silenced on Twitter as far-right trolls advise Elon Musk. So-called far-right trolls. This sho… https://t.co/ZeDFtk3Btr</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hank W</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Elon musk is quickly learning how corrupt, vindictive &amp;amp; nasty the Left Wing Democrat Liberals really are.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FranofFunnyFun 🐀</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Elon Musk is a big bed-wetting doody-head</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Honolulu, Hawai'i</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Massimo/Gabriella</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Elon Musk’s Twitter Poll Suggests Donald Trump Will Be Reinstated On The Platform - Social Media Explorer https://t.co/w1UdHYpTSs</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Right next to you</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>getitzone</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Elon Musk expects Neuralink’s brain chip to begin human trials in 6 months https://t.co/y1AGfybhAG https://t.co/6kL5Zex1KW</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Libertarian Boxcar2</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Health
+https://t.co/PIQ8bsNsza</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Route 66 USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>The Joe Piscopo Show</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>🚨 NOW
+⏰ 9:25am EST
+@mirandadevine joins @JrzyJoePiscopo to discuss Hunter Biden, Elon Musk, and other news of the… https://t.co/FlZX2fUSVu</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TIMES NOW</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>#Neuralink a ray of hope for people with disabilities? #ElonMusk says brain chip to begin human trials in 6 months.
+https://t.co/MV7Hhc5U0X</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vivek Y. Kelkar</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Does #Elon Musk get the first human insert or does he try it on some poor goof somewhere? https://t.co/OLjRnUIQ99</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TecnoRojo</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Left-Wing Voices Are Silenced on Twitter as Far-Right Trolls Advise Elon Musk https://t.co/KOEKYPCKGh</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Alfredo Garza</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A GOP With Backbone Would Fight For Free Speech On Twitter https://t.co/vw4w9sLYBR</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IsraelLooking</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>@FoxNews Once again I am convinced of Elon Musk's consistency!</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>pieraldi</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Interested in how the new republican Musk will convince his anti vacation audience this is safe. Musk 'Confident' N… https://t.co/xbvXB417ZS</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>San Francsico</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Heal the Planet ✌✌🎸🎸</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>EU could ban Twitter unless Elon Musk sticks to bloc's digital rules https://t.co/5lVf8W8xJw 
+We desperately need… https://t.co/PCSjIfFfnz</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>North Texas</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wildfan2009</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Why is it that ever since Elon Musk took over this platform, they changed the wording on the way you report so you… https://t.co/YcbWefwFMQ</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Bethlehem, PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>karakartal 🇯🇵</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>@Darkwebhaber Comrade Elon Musk https://t.co/O3fR9FZXse</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tom clooney</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Elon Musk visited @Apple HQ😱</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>terry Curran</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Facts! https://t.co/Qa6d1pMccB</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Tom Sora</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Now that the elite have lost control of the machine that put them at the center of the universe, they want to see i… https://t.co/0BYRU7uzam</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>München</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Come Down to Earth</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>@business I'm going to be very irritated if, instead of some Sauron-like being, the Anti-Christ winds up being Elon frickin' Musk.</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Luciana Moherdaui</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>"How Twitter handles such issues as China experiences its most widespread public dissent in decades will be an earl… https://t.co/MYejafBzd4</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>São Paulo, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Net Zero Foundation</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tesla long-awaited Semi Truck finally delivered -- cost slightly higher than diesel trucks, but with "Fuel savings… https://t.co/aIGMxb5gAQ</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Eric</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Apple never considered removing Twitter, says Elon Musk https://t.co/JMRu0ckTeY</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Maggie LaPointe</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Elon Musk expects Neuralink's brain chip to begin human trials in 6 months https://t.co/qWDJcQ7Uv0</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>John “Jacky”</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>@PoliticusSarah No shot! Elon Musk talking gibberish to get out in front of another needed money raise. 
+These guys so predictable.</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NY/NJ/FL USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>bonkus</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>I promise bro one more lane seriously it’ll fix traffic bro one more lane I swear please this is the one for real t… https://t.co/M2JbuU5vy7</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Lexington</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Stag Do(e)</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>@faineg not sure whether this is "BREAKING: elon musk announces grandiose plans to investors, 0 follow-through anti… https://t.co/4psrBbx7oH</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>webnow🌎</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thierry Breton said Twitter has "massive work ahead" to meet its commitments under Europe's new platform regulation… https://t.co/2E9tYm10zY</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>mark martinelli</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>@ACInvestorBlog no way..   https://t.co/wjKrpMjMUm</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Josh Gane</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ELON MUSK makes a complete ASS of himself DAILY. 
+HE is annoying, but his downward  SPIRAL is FUN to watch! 🤭
+#ElonMuskIsaGiantTurd</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Clarence</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Good read.  https://t.co/68EG9H7Tm0</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>unicorn.computer</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BREAKING: @elonmusk Suspended from Twitter for 'Impersonating a CEO'
+https://t.co/8b7vIsEOol https://t.co/SYSH8hbmM7</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>The Web</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>@bennyjohnson @elonmusk Breaking…..The moon is for sale and I will sell it to you and you only if you send me a Bit… https://t.co/LGysNYAvoZ</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Not Sure</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Looks like they're close to producing safe, practical and affordable high resolution devices and processes to fix k… https://t.co/r8e6OraJIj</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Virgo,Milkyway,Sol,Earth,US</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Dileep_W 🇱🇰 🇸🇬</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Apple to Elon Musk (in Bane's voice): "Do you feel in charge?" https://t.co/5iXzgW58gu</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MichaelPaul424</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>@disclosetv So because it was more than one democrat doing far worse than Elon Musk it makes it ok when they do it?</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ap_Saegge@ruhr.social</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Elon Musk is a monkey torturer searching for allowance to torture humans instead. https://t.co/thrGTovYeR</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Wraeclast</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>helga guillen ramos 🌱</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>@PaulMiller1313 @joncoopertweets Elon Musk Neuralink has been mutilating and killing monkeys, they performed grueso… https://t.co/kCemKJlsFw</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Victoria, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BREAKING: Elon Musk says he’s confident Neuralink device ready for humans
+https://t.co/B1x5NpgIgr</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NW Florida</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Carolyn Fowler</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>@kilmeade @elonmusk Definitely a disgrace to the uniform I once wore. Elon Musk is as fair as they get</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Kansas City, MO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Piggers</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>@BigChina1 @MFCephas13 @JoshuaPHilll A misunderstood would be if they talked and Elon musk believed that Tim cook i… https://t.co/L7oUdL5LSI</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>David A</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>@Alex79321400 @RobSchneider @GavinNewsom I think it certainly does.  Elon Musk is not just rich.</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Michael Haber</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>I’m still here for now but I’m hoping to be more actively on mastodon soon— @mhaber@kolektiva.social. 
+https://t.co/ejtUsaJPvQ</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Brooklyn | LI</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Dimitrios</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>There is serious friction with the greedy heartless Brandon Admin &amp;amp; Apple against Twitter CEO Elon Musk exposing th… https://t.co/3z9IvclqVn</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dan Harrington</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Elon Musk's "Heartlink"?  After Neuralink, is Truthlink or Heartlink next?  What would be the value of a link betwe… https://t.co/UYJBSfMvg3</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Space Cowboy</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>@garyblack00 Hey Gary, so I guess this means Elon Musk knows exactly what he’s doing after all. Got it thanks @elonmusk</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>South Padre Island, TX</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Maple State of Mind 🇺🇦 🕊 💉😷</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>@joncoopertweets Yes and Elon Musk, who I never followed and had to block</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Toronto / Bradenton, FL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Moogly</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>@ReGainke @marcorubio @elonmusk @Twitter @tiktok_us @Apple He spoke several times about the buyout, and after imply… https://t.co/pxd9UP86WJ</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>America</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Roevember</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>@mehdirhasan Oh, it's because Elon Musk is a liar.</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Backing away from the brink?</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Cloūd ☁️</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>@suppeepswhatsup @AWOL323 @AnthonyPoschen @teslaownersSV @elonmusk Didn’t you ask for proof? You receive it, then a… https://t.co/QPJCYp4vtA</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>•,,,•</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wetin Elon musk Dey do?random pple or bots just Dey follow me since yesterday</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>I love P🏀LAND</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Tansu YEĞEN</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>This is how Elon Musk predicted the future 14 years agp https://t.co/80bJ5pNHJz</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FIRE</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>In the neverending debate surrounding Twitter under Elon Musk, the distinction between free speech as a legal right… https://t.co/K1zlgmJaa6</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Philadelphia and Washington</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Whistle</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>@TheMoonCarl JUST IN: Elon Musk says his Neuralink device is ready to be implemented into the human brain within the next six months.</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Wiser Monkey Crypto</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>@Reuters Bill Gates: I’m gonna put a microchip inside you 
+Everyone: EVILLLLL 
+Elon Musk: I’m gonna put a microch… https://t.co/5Cxq1WGdaU</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pranay 🌻</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>@MehboobaMufti Who knows why he resigned. After Elon Musk's takeover of Twitter ,100s resigned/laid off only to pro… https://t.co/YWPhNtwwdB</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sarah E. Needleman</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Elon Musk said he met with Apple CEO Tim Cook at Apple’s headquarters and Cook said Apple never considered banning… https://t.co/r1P9RgG6N9</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>New Jersey</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Carl the NPC🐷👑</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>@elonmusk This is elon musk</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Technical earn</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Zelenskyy tells Elon Musk to ‘come to Ukraine’ after peace deal furore https://t.co/U1IPieHePX</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Mike Elliott 🇺🇸</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Alyssa Milano Tweets That She Gave Back Her Tesla In Protest &amp;amp; Elon Musk Claps Back  https://t.co/VSDiG1r2vT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Not Sure</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Looks like they're close to producing safe, practical and affordable high resolution devices and processes to fix k… https://t.co/iQM1ReCAIH</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Virgo,Milkyway,Sol,Earth,US</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Rosseta_Stoned</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>The Elon Musk business plan... https://t.co/0FqhXnPmTT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Funky Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Max 🏳️‍⚧️</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Elon musk should verify omar and edvin</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>they/xe</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Kevin Merck</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>@rebelpuss Thank you, if that's true, I think we all need to take a closer look at Elon Musk, for everyone's sake.… https://t.co/VSubNOUN18</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Margaret Reis</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Elon Musk ‘resolves’ Apple row over ‘removal of Twitter from iPhone store’ https://t.co/T0xu8Lgg6B</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>York, PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Fatigoat</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>@POTUS Since Elon Musk took over Twitter and brought Donald Trump back, I will be leaving this country. I got my pa… https://t.co/YqE758K1BZ</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>not india</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Loboka</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>New twitter owner, Elon Musk says feud with Apple has been resolved https://t.co/54RoFPEGu2</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acra ghana </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>𝓝𝓐𝓝𝓒𝓔 🦋🌊🦋</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Elon Musk’s monkey-killing brain chips are ready for human trials | Dazed https://t.co/cMfBtIhch9</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Newsbreak.ng</t>
+        </is>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Twitter CEO Elon Musk Says Users Might Lose Followers, See Reason https://t.co/zxqZr2ANi8</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Lagos, Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Paul, robot-angel: phase 2 🤖</t>
+        </is>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Who thought giving monkeys to Elon Musk was a good idea???</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Minntropolis (he/him)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>RUDY GAYBERT OUT NOW</t>
+        </is>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tyler The Creator Lil Durk DaBaby Lil Baby Polo G Dream Elon Musk Elon Musk https://t.co/dT7ousw2Ze</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>usa share news</t>
+        </is>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Elon Musk’s Neuralink shows brain implant prototype and robotic surgeon during recruiting event https://t.co/y9PCX4HGt8</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>L May</t>
+        </is>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tesla Set to Deliver Semi Truck to PepsiCo, Expanding Beyond Passenger Vehicles
+Car company is slated to host event… https://t.co/CYwGPDpuR1</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Whistle</t>
+        </is>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>JUST IN: Elon Musk says his Neuralink device is ready to be implemented into the human brain within the next six months.</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Kathy Stewart</t>
+        </is>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>@DonaldJTrumpJr @elonmusk They are condeming Elon Musk for allowing people back on Twitter that spread lies and fal… https://t.co/4Q4XFSFhcu</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NewsPointly</t>
+        </is>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Elon Musk criticises Apple's App Store policy, watch this video for details
+https://t.co/ZPyCMJxNlh</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>WorldNews</t>
+        </is>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Elon Musk criticises Apple's App Store policy, watch this video for details
+https://t.co/TpJVUHS2ay</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Corey Bye</t>
+        </is>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>@smc429 What are you guys hate about Elon Musk the most the Free Speech part or the fact that he's rich?</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>morales richard</t>
+        </is>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>@KreigerPinkie AAHAHAHAH wasting time talking about a chip that Elon Musk will never want to put in anyone's hands… https://t.co/aim6Pc5gSN</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Saint-Martin-d'Hères, France</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Jerry Chamberlain☮️💔🐀</t>
+        </is>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Absolutely not. What is wrong with him?🤷‍♂️
+DeSantis says Congress should act if Apple follows through on Elon Mus… https://t.co/9qPiKzmFhP</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>I'm a California Man.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Henghi</t>
+        </is>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>@tedcruz Elon musk is in bed with you and Trump!</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>HindiNewsWala</t>
+        </is>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Elon Musk Warns Your Twitter Followers May Down Dip Know Reason Here- HindiNewsWala https://t.co/QJ0NTVZZf9</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Adele In Texas</t>
+        </is>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>@theintercept Still promoting left-wing lies, extreme violence, and false narrative that Antifa 'protesters' are th… https://t.co/MAxiZ30sRc</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Texas, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Brenda Morrison</t>
+        </is>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>@teslaownersSV @elonmusk He is brave for taking on the elite left and supporting freedom of speech. I joined Twitte… https://t.co/dicBmaac9V</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Whistle</t>
+        </is>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>@Davincij15 JUST IN: Elon Musk says his Neuralink device is ready to be implemented into the human brain within the next six months.</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Usman Ali Syed</t>
+        </is>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Elon Musk said Apple threatened to remove Twitter from Appstore which then he himself corrected by calling it a "mi… https://t.co/w0JFYSHZPH</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Janet Kearney</t>
+        </is>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>@Jim_Jordan So Elon Musk is going woke?</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Florida, USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The vrge</t>
+        </is>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>New post: "EU warns Elon Musk’s Twitter has ‘huge work ahead’ to comply with its strict new rules" https://t.co/c4jwOXBFBj</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
